--- a/Risorse/Traduzione Scrabble Score Keeper.xlsx
+++ b/Risorse/Traduzione Scrabble Score Keeper.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LucaFisso\Desktop\Scrabble Score Keeper\Risorse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LucaFisso\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="10485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="99">
-  <si>
-    <t>ID (DON'T TOUCH)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="127">
   <si>
     <t>ITALIAN</t>
   </si>
@@ -69,253 +66,340 @@
     <t>Attenzione</t>
   </si>
   <si>
+    <t>cancel</t>
+  </si>
+  <si>
+    <t>enter_score</t>
+  </si>
+  <si>
+    <t>allowed_int_num</t>
+  </si>
+  <si>
+    <t>It's allowed only integer numbers.</t>
+  </si>
+  <si>
+    <t>Sono consentiti solo numeri interi.</t>
+  </si>
+  <si>
+    <t>color_blue</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Blu</t>
+  </si>
+  <si>
+    <t>color_red</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Rosso</t>
+  </si>
+  <si>
+    <t>color_green</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Verde</t>
+  </si>
+  <si>
+    <t>color_yellow</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Giallo</t>
+  </si>
+  <si>
+    <t>reset</t>
+  </si>
+  <si>
+    <t>Keep track of your scores in Scrabble with ease!</t>
+  </si>
+  <si>
+    <t>Tieni traccia dei tuoi punteggi in Scrabble con facilità!</t>
+  </si>
+  <si>
+    <t>Up to 4 players</t>
+  </si>
+  <si>
+    <t>Fino a 4 giocatori!</t>
+  </si>
+  <si>
+    <t>Custom color for any player</t>
+  </si>
+  <si>
+    <t>Colore personalizzato per ogni giocatore</t>
+  </si>
+  <si>
+    <t>Action button to edit or delete a score quickly</t>
+  </si>
+  <si>
+    <t>Pulsante azione per modificare o eliminare un punteggio in modo veloce</t>
+  </si>
+  <si>
+    <t>Autosave after every action</t>
+  </si>
+  <si>
+    <t>Salvataggio automatico ad ogni azione</t>
+  </si>
+  <si>
+    <t>This apps is not affiliated with the trademarked Scrabble board game nor its creators.</t>
+  </si>
+  <si>
+    <t>Questa app non è affiliata con il gioco da tavolo Scrabble né con i suoi creatori.</t>
+  </si>
+  <si>
+    <t>Bug fix</t>
+  </si>
+  <si>
+    <t>ENGLISH</t>
+  </si>
+  <si>
+    <t>feature1</t>
+  </si>
+  <si>
+    <t>feature2</t>
+  </si>
+  <si>
+    <t>feature3</t>
+  </si>
+  <si>
+    <t>feature4</t>
+  </si>
+  <si>
+    <t>appdescription</t>
+  </si>
+  <si>
+    <t>changelog1</t>
+  </si>
+  <si>
+    <t>changelog2</t>
+  </si>
+  <si>
+    <t>changelog3</t>
+  </si>
+  <si>
+    <t>Piccoli cambiamenti grafici</t>
+  </si>
+  <si>
+    <t>Small GUI changes</t>
+  </si>
+  <si>
+    <t>disclaimer</t>
+  </si>
+  <si>
+    <t>edit</t>
+  </si>
+  <si>
+    <t>Modifica</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>Cancella</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>Pulisci</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>Informazioni</t>
+  </si>
+  <si>
+    <t>Informations</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Aggiungi punteggio a {0}</t>
+  </si>
+  <si>
+    <t>Add score to {0}</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>Aggiungi</t>
+  </si>
+  <si>
+    <t>Annulla</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>Modifica giocatore</t>
+  </si>
+  <si>
+    <t>Edit player</t>
+  </si>
+  <si>
+    <t>edit_player</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>Colore</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>Salva</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Reimposta</t>
+  </si>
+  <si>
+    <t>Reset</t>
+  </si>
+  <si>
+    <t>changelog4</t>
+  </si>
+  <si>
+    <t>changelog5</t>
+  </si>
+  <si>
+    <t>Rimosso supporto a WP 8.1</t>
+  </si>
+  <si>
+    <t>Removed WP 8.1 support</t>
+  </si>
+  <si>
+    <t>Aggiunto supporto UWP</t>
+  </si>
+  <si>
+    <t>Added UWP support</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
-    <t>cancel</t>
-  </si>
-  <si>
-    <t>annulla</t>
-  </si>
-  <si>
-    <t>enter_score</t>
-  </si>
-  <si>
-    <t>Enter score</t>
-  </si>
-  <si>
-    <t>Inserisci punteggio</t>
-  </si>
-  <si>
-    <t>enter_score_player_generic</t>
-  </si>
-  <si>
-    <t>Enter the score for the {0}</t>
-  </si>
-  <si>
-    <t>Inserisci il punteggio per il {0}</t>
-  </si>
-  <si>
-    <t>enter_score_player_name</t>
-  </si>
-  <si>
-    <t>Enter the score for {0}</t>
-  </si>
-  <si>
-    <t>Inserisci il punteggio per {0}</t>
-  </si>
-  <si>
-    <t>allowed_int_num</t>
-  </si>
-  <si>
-    <t>It's allowed only integer numbers.</t>
-  </si>
-  <si>
-    <t>Sono consentiti solo numeri interi.</t>
+    <t>Ok</t>
   </si>
   <si>
     <t>edit_text</t>
   </si>
   <si>
+    <t>Inserisci il nuovo valore</t>
+  </si>
+  <si>
     <t>Enter new value</t>
   </si>
   <si>
-    <t>Inserisci il nuovo valore</t>
-  </si>
-  <si>
     <t>edit_title</t>
   </si>
   <si>
+    <t>Modifica valore</t>
+  </si>
+  <si>
     <t>Edit value</t>
   </si>
   <si>
-    <t>Modifica valore</t>
-  </si>
-  <si>
-    <t>color_blue</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>Blu</t>
-  </si>
-  <si>
-    <t>color_red</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Rosso</t>
-  </si>
-  <si>
-    <t>color_green</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Verde</t>
-  </si>
-  <si>
-    <t>color_yellow</t>
-  </si>
-  <si>
-    <t>Yellow</t>
-  </si>
-  <si>
-    <t>Giallo</t>
-  </si>
-  <si>
-    <t>enter_name</t>
-  </si>
-  <si>
-    <t>Enter a name for {0}</t>
-  </si>
-  <si>
-    <t>Inserisci un nome per il</t>
-  </si>
-  <si>
-    <t>enter_color</t>
-  </si>
-  <si>
-    <t>Select a color for {0}</t>
-  </si>
-  <si>
-    <t>Scegli un colore per il</t>
-  </si>
-  <si>
-    <t>enter_name_title</t>
-  </si>
-  <si>
-    <t>Enter name</t>
-  </si>
-  <si>
-    <t>Inserisci nome</t>
-  </si>
-  <si>
-    <t>reset</t>
-  </si>
-  <si>
-    <t>reimposta</t>
-  </si>
-  <si>
-    <t>current</t>
-  </si>
-  <si>
-    <t>corrente</t>
-  </si>
-  <si>
-    <t>Keep track of your scores in Scrabble with ease!</t>
-  </si>
-  <si>
-    <t>Tieni traccia dei tuoi punteggi in Scrabble con facilità!</t>
-  </si>
-  <si>
-    <t>Up to 4 players</t>
-  </si>
-  <si>
-    <t>Fino a 4 giocatori!</t>
-  </si>
-  <si>
-    <t>Custom color for any player</t>
-  </si>
-  <si>
-    <t>Colore personalizzato per ogni giocatore</t>
-  </si>
-  <si>
-    <t>Action button to edit or delete a score quickly</t>
-  </si>
-  <si>
-    <t>Pulsante azione per modificare o eliminare un punteggio in modo veloce</t>
-  </si>
-  <si>
-    <t>Autosave after every action</t>
-  </si>
-  <si>
-    <t>Salvataggio automatico ad ogni azione</t>
-  </si>
-  <si>
-    <t>This apps is not affiliated with the trademarked Scrabble board game nor its creators.</t>
-  </si>
-  <si>
-    <t>Questa app non è affiliata con il gioco da tavolo Scrabble né con i suoi creatori.</t>
-  </si>
-  <si>
-    <t>Bug fix</t>
-  </si>
-  <si>
-    <t>ENGLISH</t>
-  </si>
-  <si>
-    <t>feature1</t>
-  </si>
-  <si>
-    <t>feature2</t>
-  </si>
-  <si>
-    <t>feature3</t>
-  </si>
-  <si>
-    <t>feature4</t>
-  </si>
-  <si>
-    <t>appdescription</t>
-  </si>
-  <si>
-    <t>changelog1</t>
-  </si>
-  <si>
-    <t>changelog2</t>
-  </si>
-  <si>
-    <t>changelog3</t>
-  </si>
-  <si>
-    <t>Piccoli cambiamenti grafici</t>
-  </si>
-  <si>
-    <t>Small GUI changes</t>
-  </si>
-  <si>
-    <t>disclaimer</t>
-  </si>
-  <si>
-    <t>edit</t>
-  </si>
-  <si>
-    <t>Modifica</t>
-  </si>
-  <si>
-    <t>Edit</t>
-  </si>
-  <si>
-    <t>delete</t>
-  </si>
-  <si>
-    <t>Cancella</t>
-  </si>
-  <si>
-    <t>Delete</t>
-  </si>
-  <si>
-    <t>clear</t>
-  </si>
-  <si>
-    <t>Pulisci</t>
-  </si>
-  <si>
-    <t>Clear</t>
-  </si>
-  <si>
-    <t>info</t>
-  </si>
-  <si>
-    <t>Informazioni</t>
-  </si>
-  <si>
-    <t>Informations</t>
+    <t>settings</t>
+  </si>
+  <si>
+    <t>Impostazioni</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>automatic</t>
+  </si>
+  <si>
+    <t>Automatico</t>
+  </si>
+  <si>
+    <t>Automatic</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>Scuro</t>
+  </si>
+  <si>
+    <t>Dark</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>Chiaro</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>theme</t>
+  </si>
+  <si>
+    <t>Tema</t>
+  </si>
+  <si>
+    <t>Theme</t>
+  </si>
+  <si>
+    <t>theme_warning</t>
+  </si>
+  <si>
+    <t>È necessario riavviare l'app per applicare il tema.</t>
+  </si>
+  <si>
+    <t>You must restart the app to apply the theme.</t>
+  </si>
+  <si>
+    <t>transparent_tile</t>
+  </si>
+  <si>
+    <t>Tile trasparente</t>
+  </si>
+  <si>
+    <t>Transparent tile</t>
   </si>
 </sst>
 </file>
@@ -383,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -408,6 +492,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -689,34 +776,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y38"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" style="3" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="53.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="48.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="14.42578125" style="3"/>
+    <col min="4" max="4" width="15.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="14.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -735,21 +822,20 @@
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -768,17 +854,16 @@
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -801,17 +886,16 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-    </row>
-    <row r="4" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -834,17 +918,16 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:24" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -867,17 +950,16 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -900,17 +982,16 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -933,17 +1014,16 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -966,17 +1046,16 @@
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -999,17 +1078,16 @@
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -1032,17 +1110,16 @@
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -1065,17 +1142,16 @@
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1098,17 +1174,16 @@
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -1131,17 +1206,16 @@
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -1164,17 +1238,16 @@
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>47</v>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -1197,17 +1270,16 @@
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1230,17 +1302,16 @@
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1263,17 +1334,16 @@
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-    </row>
-    <row r="18" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>72</v>
+        <v>25</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1296,17 +1366,16 @@
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -1329,17 +1398,16 @@
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1362,17 +1430,16 @@
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:24" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>35</v>
+        <v>44</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1395,17 +1462,16 @@
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -1428,17 +1494,16 @@
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -1461,17 +1526,16 @@
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -1494,17 +1558,16 @@
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
       <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>20</v>
+        <v>36</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1527,17 +1590,16 @@
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -1560,17 +1622,16 @@
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:24" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>26</v>
+        <v>40</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -1593,17 +1654,16 @@
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>64</v>
+        <v>42</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -1626,17 +1686,16 @@
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -1659,17 +1718,16 @@
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-    </row>
-    <row r="30" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -1692,17 +1750,16 @@
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -1725,223 +1782,141 @@
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C32" s="4" t="s">
+    </row>
+    <row r="32" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
+      <c r="B34" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>126</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A3:C35">
+  <sortState ref="A3:D38">
     <sortCondition ref="A3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
